--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>472305.7768931011</v>
+        <v>496120.6372940536</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12778892.04013566</v>
+        <v>12759203.35886901</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18226018.56692576</v>
+        <v>18115683.98500261</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4970958.29487141</v>
+        <v>5013251.980918049</v>
       </c>
     </row>
     <row r="11">
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679381</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151257</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.1697293391627</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679381</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8945,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151257</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979794</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899255</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215853</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040725</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180406</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679381</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979794</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040725</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180406</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679381</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916993</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151257</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979794</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899255</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040725</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180406</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979794</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040725</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180406</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9893,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126155</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151257</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215853</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10267,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679381</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979794</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215853</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916993</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151257</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979794</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899255</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215853</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040725</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180406</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679381</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10841,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979794</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899255</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040725</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180406</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679381</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151257</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,7 +11220,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11227,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679383</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11315,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151257</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040725</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180406</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22559,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.25529200088408</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.3588981658848</v>
+        <v>14.43656122057276</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.25430980652214</v>
+        <v>14.25430980652213</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23270,49 +23272,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H11" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I11" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L11" t="n">
-        <v>32.87119109810837</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917244</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126155</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R11" t="n">
-        <v>69.10542099048567</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S11" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,19 +23351,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I12" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>26.7578748098077</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S12" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,49 +23430,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I13" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J13" t="n">
-        <v>86.2208375662932</v>
+        <v>85.39252213584972</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979794</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899255</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215853</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040725</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180406</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.2119976362414</v>
+        <v>102.230949233282</v>
       </c>
       <c r="R13" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S13" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T13" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,49 +23509,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H14" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I14" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L14" t="n">
-        <v>32.87119109810837</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917244</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>69.10542099048567</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S14" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,19 +23588,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I15" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>26.7578748098077</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S15" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I16" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58459624356987</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.86903925848995</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R16" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S16" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T16" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,49 +23746,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H17" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I17" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L17" t="n">
-        <v>32.87119109810837</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917244</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126155</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R17" t="n">
-        <v>134.8218408634681</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S17" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,19 +23825,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I18" t="n">
-        <v>75.83750674330533</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151257</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K18" t="n">
-        <v>26.7578748098077</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.1697293391627</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R18" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S18" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,28 +23904,28 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I19" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J19" t="n">
-        <v>52.58459624356987</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.86903925848995</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R19" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S19" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T19" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H20" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I20" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -23996,34 +23998,34 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>32.87119109810837</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917244</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126155</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R20" t="n">
-        <v>69.10542099048567</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S20" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,19 +24062,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I21" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>26.7578748098077</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R21" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S21" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I22" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J22" t="n">
-        <v>52.58459624356987</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24157,10 +24159,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.86903925848995</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R22" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S22" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T22" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,49 +24220,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H23" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I23" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679381</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916993</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L23" t="n">
-        <v>32.87119109810837</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917244</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126155</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R23" t="n">
-        <v>134.8218408634681</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S23" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,19 +24299,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I24" t="n">
-        <v>65.71175959472041</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151257</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K24" t="n">
-        <v>26.7578748098077</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.1697293391627</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R24" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S24" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,28 +24378,28 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I25" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J25" t="n">
-        <v>52.58459624356987</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.86903925848995</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R25" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S25" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T25" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,49 +24457,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H26" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I26" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>32.87119109810837</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917244</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>69.10542099048567</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S26" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,19 +24536,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I27" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>26.7578748098077</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S27" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,49 +24615,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I28" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J28" t="n">
-        <v>52.58459624356987</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.86903925848995</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R28" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S28" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T28" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,49 +24694,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H29" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I29" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679381</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916993</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L29" t="n">
-        <v>32.87119109810837</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917244</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126155</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R29" t="n">
-        <v>134.8218408634681</v>
+        <v>133.1811664518765</v>
       </c>
       <c r="S29" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,19 +24773,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I30" t="n">
-        <v>75.83750674330533</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151257</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K30" t="n">
-        <v>26.7578748098077</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.1697293391627</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R30" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1006281848752</v>
       </c>
       <c r="S30" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,49 +24852,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I31" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J31" t="n">
-        <v>86.2208375662932</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979794</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899255</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215853</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040725</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180406</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q31" t="n">
-        <v>103.2119976362414</v>
+        <v>102.230949233282</v>
       </c>
       <c r="R31" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S31" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T31" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,49 +24931,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H32" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I32" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L32" t="n">
-        <v>32.87119109810837</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917244</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>69.10542099048567</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S32" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,19 +25010,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I33" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>26.7578748098077</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.1697293391627</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R33" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S33" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T33" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,22 +25089,22 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I34" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J34" t="n">
-        <v>52.58459624356987</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -25111,25 +25113,25 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848995</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R34" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S34" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T34" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,49 +25168,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H35" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I35" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>32.87119109810837</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917244</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R35" t="n">
-        <v>69.10542099048567</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S35" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,19 +25247,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I36" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>26.7578748098077</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R36" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S36" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I37" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J37" t="n">
-        <v>52.58459624356987</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25342,7 +25344,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.86903925848995</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R37" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S37" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T37" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,49 +25405,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H38" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I38" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916993</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L38" t="n">
-        <v>32.87119109810837</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917244</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R38" t="n">
-        <v>69.10542099048567</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S38" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,19 +25484,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I39" t="n">
-        <v>65.71175959472041</v>
+        <v>75.35636030051944</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151257</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K39" t="n">
-        <v>26.7578748098077</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R39" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S39" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I40" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J40" t="n">
-        <v>52.58459624356987</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25582,7 +25584,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.86903925848995</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R40" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S40" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T40" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,49 +25642,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H41" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I41" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L41" t="n">
-        <v>32.87119109810837</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917244</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126155</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R41" t="n">
-        <v>69.10542099048567</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S41" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,19 +25721,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I42" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>26.7578748098077</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R42" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S42" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,49 +25800,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I43" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J43" t="n">
-        <v>52.58459624356987</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899255</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040725</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180406</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848995</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R43" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S43" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T43" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,49 +25879,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H44" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I44" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L44" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601003</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048567</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S44" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,19 +25958,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I45" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S45" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I46" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356987</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R46" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S46" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T46" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>942172.1326869692</v>
+        <v>942167.7895245947</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>942254.1885786251</v>
+        <v>942247.0793025987</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>942263.762597041</v>
+        <v>942263.7625970411</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>258912.4575013781</v>
+        <v>253972.704777872</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>272807.2379491647</v>
+        <v>282560.1655218702</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>251215.0251743444</v>
+        <v>258968.0863124059</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>272984.2539309003</v>
+        <v>275001.552868543</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>232033.3081444072</v>
+        <v>240103.7714675915</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>259832.3332802588</v>
+        <v>284856.3589523738</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>219274.1088162178</v>
+        <v>224162.544846805</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>260908.0440549738</v>
+        <v>278821.5338757905</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>276247.9341661483</v>
+        <v>275001.552868543</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>275839.4387633016</v>
+        <v>260765.0082070261</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>263069.5838887982</v>
+        <v>258519.1559423758</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>276678.2318661305</v>
+        <v>282560.1655218702</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491568.0692279836</v>
+        <v>491565.803230223</v>
       </c>
       <c r="C2" t="n">
-        <v>491610.8809975433</v>
+        <v>491607.1718100512</v>
       </c>
       <c r="D2" t="n">
-        <v>491615.8761375864</v>
+        <v>491615.8761375863</v>
       </c>
       <c r="E2" t="n">
-        <v>127994.1738384046</v>
+        <v>126922.2869429972</v>
       </c>
       <c r="F2" t="n">
-        <v>132758.09856336</v>
+        <v>136723.7020552251</v>
       </c>
       <c r="G2" t="n">
-        <v>125355.0541834216</v>
+        <v>128634.9891834088</v>
       </c>
       <c r="H2" t="n">
-        <v>132818.7897570979</v>
+        <v>134132.1777169415</v>
       </c>
       <c r="I2" t="n">
-        <v>118778.4654874431</v>
+        <v>122167.2240937582</v>
       </c>
       <c r="J2" t="n">
-        <v>128309.5598197351</v>
+        <v>137510.9683742549</v>
       </c>
       <c r="K2" t="n">
-        <v>114403.8828606353</v>
+        <v>116701.6606809171</v>
       </c>
       <c r="L2" t="n">
-        <v>128678.3749424945</v>
+        <v>135441.8854908549</v>
       </c>
       <c r="M2" t="n">
-        <v>133937.7658377543</v>
+        <v>134132.1777169415</v>
       </c>
       <c r="N2" t="n">
-        <v>133797.7102710641</v>
+        <v>129251.0766901357</v>
       </c>
       <c r="O2" t="n">
-        <v>129419.4743140915</v>
+        <v>128481.0701993985</v>
       </c>
       <c r="P2" t="n">
-        <v>134085.2964777483</v>
+        <v>136723.7020552251</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11372.629688074</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>203044.1822108271</v>
+        <v>196199.5392125275</v>
       </c>
       <c r="D3" t="n">
-        <v>22280.77012981693</v>
+        <v>38825.56230004787</v>
       </c>
       <c r="E3" t="n">
-        <v>47420.72226727416</v>
+        <v>52640.43902278915</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463502.371121851</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>385783.8405692248</v>
+        <v>392517.3300834397</v>
       </c>
       <c r="D4" t="n">
-        <v>377068.1104903041</v>
+        <v>377068.1104903042</v>
       </c>
       <c r="E4" t="n">
-        <v>13590.29097776925</v>
+        <v>10704.98813712728</v>
       </c>
       <c r="F4" t="n">
-        <v>18354.21570272456</v>
+        <v>20506.40324935521</v>
       </c>
       <c r="G4" t="n">
-        <v>10951.17132278626</v>
+        <v>12417.69037753894</v>
       </c>
       <c r="H4" t="n">
-        <v>18414.90689646251</v>
+        <v>17914.87891107158</v>
       </c>
       <c r="I4" t="n">
-        <v>4374.58262680777</v>
+        <v>5949.925287888313</v>
       </c>
       <c r="J4" t="n">
-        <v>13905.67695909974</v>
+        <v>21293.66956838501</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>484.3618750472159</v>
       </c>
       <c r="L4" t="n">
-        <v>14274.49208185914</v>
+        <v>19224.58668498503</v>
       </c>
       <c r="M4" t="n">
-        <v>19533.88297711897</v>
+        <v>17914.87891107158</v>
       </c>
       <c r="N4" t="n">
-        <v>19393.82741042868</v>
+        <v>13033.77788426581</v>
       </c>
       <c r="O4" t="n">
-        <v>15015.59145345609</v>
+        <v>12263.77139352858</v>
       </c>
       <c r="P4" t="n">
-        <v>19681.41361711286</v>
+        <v>20506.40324935521</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33884.88516240442</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>38745.80483114667</v>
+        <v>38324.65750133769</v>
       </c>
       <c r="D5" t="n">
         <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>6972.10256325733</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.10256325733</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.10256325733</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.10256325733</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="I5" t="n">
-        <v>6972.10256325733</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.10256325733</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.10256325733</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.10256325733</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.10256325733</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.10256325733</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.10256325733</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17191.81674434579</v>
+        <v>-9677.75670150821</v>
       </c>
       <c r="C6" t="n">
-        <v>-135962.9466136553</v>
+        <v>-135434.3549872537</v>
       </c>
       <c r="D6" t="n">
-        <v>52954.03416058468</v>
+        <v>36409.24199035356</v>
       </c>
       <c r="E6" t="n">
-        <v>60011.05803010386</v>
+        <v>56463.12241727697</v>
       </c>
       <c r="F6" t="n">
-        <v>107431.7802973781</v>
+        <v>109103.5614400661</v>
       </c>
       <c r="G6" t="n">
-        <v>107431.780297378</v>
+        <v>109103.5614400661</v>
       </c>
       <c r="H6" t="n">
-        <v>107431.780297378</v>
+        <v>109103.5614400661</v>
       </c>
       <c r="I6" t="n">
-        <v>107431.780297378</v>
+        <v>109103.5614400661</v>
       </c>
       <c r="J6" t="n">
-        <v>107431.780297378</v>
+        <v>109103.5614400661</v>
       </c>
       <c r="K6" t="n">
-        <v>107431.780297378</v>
+        <v>109103.5614400661</v>
       </c>
       <c r="L6" t="n">
-        <v>107431.780297378</v>
+        <v>109103.5614400661</v>
       </c>
       <c r="M6" t="n">
-        <v>107431.780297378</v>
+        <v>109103.5614400661</v>
       </c>
       <c r="N6" t="n">
-        <v>107431.7802973781</v>
+        <v>109103.5614400661</v>
       </c>
       <c r="O6" t="n">
-        <v>107431.780297378</v>
+        <v>109103.5614400661</v>
       </c>
       <c r="P6" t="n">
-        <v>107431.7802973781</v>
+        <v>109103.5614400661</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992762</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>234.7800381259942</v>
+        <v>215.4613532723709</v>
       </c>
       <c r="D3" t="n">
         <v>260.7963925174648</v>
       </c>
       <c r="E3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="G3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="H3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="I3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="O3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="P3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992762</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>222.9779664560666</v>
+        <v>215.4613532723709</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01635439147063</v>
+        <v>45.33503924509392</v>
       </c>
       <c r="E3" t="n">
-        <v>59.02482598057782</v>
+        <v>65.52183527169944</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27394,46 +27396,46 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.9889007429445</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>208.6467463822456</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>177.0190258115284</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K2" t="n">
-        <v>214.0546037115793</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>228.279156979828</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>222.0152160730529</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>220.9472418750055</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>222.1041760324344</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>224.4102714990879</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>217.1821080973806</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R2" t="n">
-        <v>212.6051885295649</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S2" t="n">
-        <v>207.9389049302515</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>222.8881568254978</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3418572666964</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27470,49 +27472,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3181315750904</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>111.9902728985985</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>98.64835865463272</v>
+        <v>99.52238</v>
       </c>
       <c r="J3" t="n">
-        <v>124.4392452907996</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K3" t="n">
-        <v>133.7422231944371</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>133.0424782891217</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>135.7019048619078</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>124.739343706399</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>136.5563672569108</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>129.1268734863556</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.741326030535</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>144.1033706945348</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S3" t="n">
-        <v>171.2116449385346</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.0624069602493</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9397119764932</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27549,49 +27551,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9696969341359</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0379524075512</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>154.8104543848956</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>125.4907540397727</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K4" t="n">
-        <v>126.5406274173932</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L4" t="n">
-        <v>131.7205602141892</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>135.5896671967106</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>124.4287531140874</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>135.4483645121045</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>135.1539915655949</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q4" t="n">
-        <v>149.7228888072868</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R4" t="n">
-        <v>176.3364561889816</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.6457034240009</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.8546554334476</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3178684969824</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27631,46 +27633,46 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.8087073802583</v>
+        <v>330.604074139081</v>
       </c>
       <c r="I5" t="n">
-        <v>174.0885230584365</v>
+        <v>177.082627974293</v>
       </c>
       <c r="J5" t="n">
-        <v>100.9387195582597</v>
+        <v>107.5302742460797</v>
       </c>
       <c r="K5" t="n">
-        <v>100.0299464227919</v>
+        <v>109.908978215552</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318186</v>
+        <v>99.07729936584784</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323863</v>
+        <v>78.25325494471113</v>
       </c>
       <c r="N5" t="n">
-        <v>61.00144891149961</v>
+        <v>74.85906191710419</v>
       </c>
       <c r="O5" t="n">
-        <v>71.0718992657024</v>
+        <v>84.15725027125384</v>
       </c>
       <c r="P5" t="n">
-        <v>95.50771753390021</v>
+        <v>106.6757618768433</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.3816583481039</v>
+        <v>128.7683945450354</v>
       </c>
       <c r="R5" t="n">
-        <v>156.2970892917925</v>
+        <v>161.1755911508334</v>
       </c>
       <c r="S5" t="n">
-        <v>187.5123304152058</v>
+        <v>189.282077273907</v>
       </c>
       <c r="T5" t="n">
-        <v>218.9641928127885</v>
+        <v>219.3041628346849</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2763588042715</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27707,49 +27709,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.8385185906377</v>
+        <v>136.8800719882474</v>
       </c>
       <c r="H6" t="n">
-        <v>107.3582211803319</v>
+        <v>107.7595395204044</v>
       </c>
       <c r="I6" t="n">
-        <v>82.13536774255608</v>
+        <v>83.56604393218763</v>
       </c>
       <c r="J6" t="n">
-        <v>79.12633608862856</v>
+        <v>83.05222090402384</v>
       </c>
       <c r="K6" t="n">
-        <v>56.29524403393702</v>
+        <v>63.00520648918088</v>
       </c>
       <c r="L6" t="n">
-        <v>28.90545725697471</v>
+        <v>37.9278298388485</v>
       </c>
       <c r="M6" t="n">
-        <v>14.17891314335149</v>
+        <v>24.70759638857619</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>10.80734616165101</v>
       </c>
       <c r="O6" t="n">
-        <v>22.44423757443683</v>
+        <v>32.3308479258944</v>
       </c>
       <c r="P6" t="n">
-        <v>37.54182911310821</v>
+        <v>45.47670553911811</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.51914927829571</v>
+        <v>80.82340403282262</v>
       </c>
       <c r="R6" t="n">
-        <v>114.3252943440434</v>
+        <v>116.9052500307216</v>
       </c>
       <c r="S6" t="n">
-        <v>162.3030441088983</v>
+        <v>163.0748802443238</v>
       </c>
       <c r="T6" t="n">
-        <v>198.1292300623896</v>
+        <v>198.2967194150357</v>
       </c>
       <c r="U6" t="n">
-        <v>225.908158490674</v>
+        <v>225.9108922668325</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27786,49 +27788,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.5676055192152</v>
+        <v>167.602442491902</v>
       </c>
       <c r="H7" t="n">
-        <v>158.4629941912556</v>
+        <v>158.772726548417</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7184689252781</v>
+        <v>143.7661117038976</v>
       </c>
       <c r="J7" t="n">
-        <v>97.06289100487388</v>
+        <v>99.52586497383498</v>
       </c>
       <c r="K7" t="n">
-        <v>79.82491575659759</v>
+        <v>83.87233858330752</v>
       </c>
       <c r="L7" t="n">
-        <v>71.94053294496764</v>
+        <v>77.11984068424889</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962938</v>
+        <v>78.02086403817079</v>
       </c>
       <c r="N7" t="n">
-        <v>62.89780050171086</v>
+        <v>68.22880742205579</v>
       </c>
       <c r="O7" t="n">
-        <v>78.61457070130248</v>
+        <v>83.53861844071453</v>
       </c>
       <c r="P7" t="n">
-        <v>86.52286261917671</v>
+        <v>90.73623611577678</v>
       </c>
       <c r="Q7" t="n">
-        <v>116.0532158724207</v>
+        <v>118.9703372853178</v>
       </c>
       <c r="R7" t="n">
-        <v>158.2569640235438</v>
+        <v>159.8233609954458</v>
       </c>
       <c r="S7" t="n">
-        <v>216.6383466748816</v>
+        <v>217.2454600988881</v>
       </c>
       <c r="T7" t="n">
-        <v>226.1366284787861</v>
+        <v>226.2854773620845</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2978364364969</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04744551425096528</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4859013728226984</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.829143188160341</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.026878715157869</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.03524733340123</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.487257990159211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.331017154219815</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.465821721585371</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.994035389252334</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.822724256181627</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.123581777068932</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.980349284567201</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.081164655993873</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2076927386336007</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.003795641140077222</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02538558812022168</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2451713378979305</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8740213453672817</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.398381375867085</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.099215779921938</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.511901490752519</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6.432129060110555</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.602368376934323</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.039877187533621</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.847533927974613</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.240448055486544</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.576133269429203</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4715261653032402</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.102321734572297</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001670104481593532</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0212824243228203</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1892200998883479</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6400205423626326</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.504667399623395</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.472630753142213</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.164116067049121</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.336116750894459</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.256791351145767</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.008173939738275</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.574012483552738</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.782112822159071</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9569351881879018</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3708946129713319</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09093399483386855</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001160859508517472</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9438393492502272</v>
+        <v>0.8661762945622944</v>
       </c>
       <c r="H5" t="n">
-        <v>9.666094735508892</v>
+        <v>8.8707279766861</v>
       </c>
       <c r="I5" t="n">
-        <v>36.38736651196942</v>
+        <v>33.39326159611289</v>
       </c>
       <c r="J5" t="n">
-        <v>80.10718496842655</v>
+        <v>73.5156302806066</v>
       </c>
       <c r="K5" t="n">
-        <v>120.0599046221887</v>
+        <v>110.1808728294286</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068054</v>
+        <v>136.6891156041394</v>
       </c>
       <c r="M5" t="n">
-        <v>165.7299311340341</v>
+        <v>152.0929782825616</v>
       </c>
       <c r="N5" t="n">
-        <v>168.4116146850913</v>
+        <v>154.5540016794867</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559843</v>
+        <v>145.9409611504329</v>
       </c>
       <c r="P5" t="n">
-        <v>135.7252782213693</v>
+        <v>124.5572338784262</v>
       </c>
       <c r="Q5" t="n">
-        <v>101.9240315263455</v>
+        <v>93.53729532941404</v>
       </c>
       <c r="R5" t="n">
-        <v>59.28844852233964</v>
+        <v>54.40994666329878</v>
       </c>
       <c r="S5" t="n">
-        <v>21.50773917103957</v>
+        <v>19.7379923123383</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342871</v>
+        <v>3.791686729446446</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.06929410356498354</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.4634451749632129</v>
       </c>
       <c r="H6" t="n">
-        <v>4.877223056164522</v>
+        <v>4.475904716092083</v>
       </c>
       <c r="I6" t="n">
-        <v>17.38701225744391</v>
+        <v>15.95633606781238</v>
       </c>
       <c r="J6" t="n">
-        <v>47.71129057803813</v>
+        <v>43.78540576264285</v>
       </c>
       <c r="K6" t="n">
-        <v>81.54619494042197</v>
+        <v>74.83623248517812</v>
       </c>
       <c r="L6" t="n">
-        <v>109.6489225228995</v>
+        <v>100.6265499410257</v>
       </c>
       <c r="M6" t="n">
-        <v>127.9551207786668</v>
+        <v>117.4264375334421</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>120.5343659216823</v>
       </c>
       <c r="O6" t="n">
-        <v>120.1520068700076</v>
+        <v>110.26539651855</v>
       </c>
       <c r="P6" t="n">
-        <v>96.43257830122204</v>
+        <v>88.49770187521213</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.4626248077258</v>
+        <v>59.1583700531989</v>
       </c>
       <c r="R6" t="n">
-        <v>31.35420961992052</v>
+        <v>28.7742539332423</v>
       </c>
       <c r="S6" t="n">
-        <v>9.380126994939479</v>
+        <v>8.608290859514058</v>
       </c>
       <c r="T6" t="n">
-        <v>2.035498632431968</v>
+        <v>1.868009279785932</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03048981414231665</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.423373839243596</v>
+        <v>0.3885368665567344</v>
       </c>
       <c r="H7" t="n">
-        <v>3.764178316183975</v>
+        <v>3.454445959022605</v>
       </c>
       <c r="I7" t="n">
-        <v>12.73200600198015</v>
+        <v>11.68436322336071</v>
       </c>
       <c r="J7" t="n">
-        <v>29.93253043452224</v>
+        <v>27.46955646556112</v>
       </c>
       <c r="K7" t="n">
-        <v>49.18834241393778</v>
+        <v>45.14091958722786</v>
       </c>
       <c r="L7" t="n">
-        <v>62.94414333627064</v>
+        <v>57.76483559698941</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797568</v>
+        <v>60.90491990943427</v>
       </c>
       <c r="N7" t="n">
-        <v>64.78774396352233</v>
+        <v>59.4567370431774</v>
       </c>
       <c r="O7" t="n">
-        <v>59.84196775054031</v>
+        <v>54.91792001112826</v>
       </c>
       <c r="P7" t="n">
-        <v>51.20514142997091</v>
+        <v>46.99176793337084</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702513</v>
+        <v>32.534664344128</v>
       </c>
       <c r="R7" t="n">
-        <v>19.03642735362569</v>
+        <v>17.47003038172371</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090667</v>
+        <v>6.771137938084178</v>
       </c>
       <c r="T7" t="n">
-        <v>1.808960949495364</v>
+        <v>1.660112066196956</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02119291999400372</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H11" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179213</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798925</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K11" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718789</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M11" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P11" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R11" t="n">
-        <v>80.76369695066401</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S11" t="n">
-        <v>29.29819504130311</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T11" t="n">
-        <v>5.62821058884495</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100849</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I12" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515413</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K12" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31856,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.81204474685882</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602164</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S12" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751897</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558785</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I13" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J13" t="n">
-        <v>40.77458387310291</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073744</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224573</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904505</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307467</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143554</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734356</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R13" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S13" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T13" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H14" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179213</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798925</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K14" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718789</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M14" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P14" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R14" t="n">
-        <v>80.76369695066401</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S14" t="n">
-        <v>29.29819504130311</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T14" t="n">
-        <v>5.62821058884495</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100849</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I15" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515413</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K15" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32093,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.81204474685882</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602164</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S15" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751897</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558785</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I16" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J16" t="n">
-        <v>40.77458387310291</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073744</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224573</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904505</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307467</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143554</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734356</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R16" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S16" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T16" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H17" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179213</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798925</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K17" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718789</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M17" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P17" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R17" t="n">
-        <v>80.76369695066401</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S17" t="n">
-        <v>29.29819504130311</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T17" t="n">
-        <v>5.62821058884495</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100849</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I18" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515413</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K18" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32330,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.81204474685882</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602164</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S18" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751897</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558785</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I19" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J19" t="n">
-        <v>40.77458387310291</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073744</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224573</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904505</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307467</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143554</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734356</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R19" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S19" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T19" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H20" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179213</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798925</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K20" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718789</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M20" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P20" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R20" t="n">
-        <v>80.76369695066401</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S20" t="n">
-        <v>29.29819504130311</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T20" t="n">
-        <v>5.62821058884495</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100849</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I21" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515413</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K21" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32567,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.81204474685882</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602164</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S21" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751897</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558785</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I22" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J22" t="n">
-        <v>40.77458387310291</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073744</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224573</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904505</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307467</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143554</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734356</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R22" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S22" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T22" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H23" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179213</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798925</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K23" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718789</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M23" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P23" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R23" t="n">
-        <v>80.76369695066401</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S23" t="n">
-        <v>29.29819504130311</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T23" t="n">
-        <v>5.62821058884495</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100849</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I24" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515413</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K24" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32804,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.81204474685882</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602164</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S24" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751897</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558785</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I25" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J25" t="n">
-        <v>40.77458387310291</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073744</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224573</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904505</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307467</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143554</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734356</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R25" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S25" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T25" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H26" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179213</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798925</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K26" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718789</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M26" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P26" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R26" t="n">
-        <v>80.76369695066401</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S26" t="n">
-        <v>29.29819504130311</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T26" t="n">
-        <v>5.62821058884495</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100849</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I27" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515413</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K27" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33041,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.81204474685882</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602164</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S27" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751897</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558785</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I28" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J28" t="n">
-        <v>40.77458387310291</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073744</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224573</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904505</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307467</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143554</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734356</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R28" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S28" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T28" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H29" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179213</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798925</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K29" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718789</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M29" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P29" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R29" t="n">
-        <v>80.76369695066401</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S29" t="n">
-        <v>29.29819504130311</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T29" t="n">
-        <v>5.62821058884495</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100849</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I30" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515413</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K30" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33278,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.81204474685882</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602164</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S30" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751897</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558785</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I31" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J31" t="n">
-        <v>40.77458387310291</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073744</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224573</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904505</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307467</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143554</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734356</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R31" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S31" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T31" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H32" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179213</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798925</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K32" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718789</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M32" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P32" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R32" t="n">
-        <v>80.76369695066401</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S32" t="n">
-        <v>29.29819504130311</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T32" t="n">
-        <v>5.62821058884495</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100849</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I33" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515413</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K33" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33515,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.81204474685882</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602164</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S33" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751897</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558785</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I34" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J34" t="n">
-        <v>40.77458387310291</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073744</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224573</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904505</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307467</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143554</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734356</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R34" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S34" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T34" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H35" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179213</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798925</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K35" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718789</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M35" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P35" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R35" t="n">
-        <v>80.76369695066401</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S35" t="n">
-        <v>29.29819504130311</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T35" t="n">
-        <v>5.62821058884495</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100849</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I36" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515413</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K36" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33752,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.81204474685882</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602164</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S36" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751897</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558785</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I37" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J37" t="n">
-        <v>40.77458387310291</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073744</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224573</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904505</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307467</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143554</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734356</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R37" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S37" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T37" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H38" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179213</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798925</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K38" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718789</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M38" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P38" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R38" t="n">
-        <v>80.76369695066401</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S38" t="n">
-        <v>29.29819504130311</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T38" t="n">
-        <v>5.62821058884495</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100849</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I39" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515413</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K39" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33989,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.81204474685882</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602164</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S39" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751897</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558785</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I40" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J40" t="n">
-        <v>40.77458387310291</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073744</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224573</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904505</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307467</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143554</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734356</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R40" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S40" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T40" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H41" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179213</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798925</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K41" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718789</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M41" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P41" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R41" t="n">
-        <v>80.76369695066401</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S41" t="n">
-        <v>29.29819504130311</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T41" t="n">
-        <v>5.62821058884495</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100849</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I42" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515413</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K42" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34226,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.81204474685882</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602164</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S42" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751897</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558785</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I43" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J43" t="n">
-        <v>40.77458387310291</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073744</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224573</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904505</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307467</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143554</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734356</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R43" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S43" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T43" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H44" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798925</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K44" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M44" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P44" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R44" t="n">
-        <v>80.76369695066401</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S44" t="n">
-        <v>29.29819504130311</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T44" t="n">
-        <v>5.62821058884495</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I45" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515413</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K45" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34463,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S45" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751897</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558785</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I46" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J46" t="n">
-        <v>40.77458387310291</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143554</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734356</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R46" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S46" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T46" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>496120.6372940536</v>
+        <v>413674.0204085457</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12759203.35886901</v>
+        <v>12101176.53581382</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18115683.98500261</v>
+        <v>17457657.16194741</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5013251.980918049</v>
+        <v>5348425.891986426</v>
       </c>
     </row>
     <row r="11">
@@ -8692,10 +8692,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8771,7 +8771,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q14" t="n">
         <v>80.64258426171736</v>
@@ -9008,7 +9008,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>53.21989217810253</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9482,7 +9482,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>53.21989217810253</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q26" t="n">
         <v>80.64258426171739</v>
@@ -9956,7 +9956,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10047,10 +10047,10 @@
         <v>37.63776203285606</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q32" t="n">
         <v>80.64258426171739</v>
@@ -10430,7 +10430,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10591,7 +10591,7 @@
         <v>53.21989217810253</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10667,7 +10667,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,10 +10825,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10992,7 +10992,7 @@
         <v>46.68471506615329</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O40" t="n">
         <v>55.28283671961447</v>
@@ -11062,10 +11062,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,7 +11141,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11223,19 +11223,19 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N43" t="n">
         <v>37.63776203285606</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11299,10 +11299,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q44" t="n">
         <v>80.64258426171739</v>
@@ -11378,7 +11378,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.25430980652213</v>
+        <v>14.25430980652214</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23284,10 +23284,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23296,13 +23296,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>67.46474657889404</v>
@@ -23363,7 +23363,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23439,28 +23439,28 @@
         <v>137.7543979186262</v>
       </c>
       <c r="J13" t="n">
-        <v>85.39252213584972</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K13" t="n">
-        <v>60.64691470913344</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>47.39929435887775</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>46.68471506615329</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>37.63776203285606</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>55.28283671961447</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>66.55853351624533</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.230949233282</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R13" t="n">
         <v>150.8348675305268</v>
@@ -23521,10 +23521,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23533,10 +23533,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.069265482343781</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23600,7 +23600,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23758,10 +23758,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23770,13 +23770,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>67.46474657889404</v>
@@ -23831,13 +23831,13 @@
         <v>105.4566448252536</v>
       </c>
       <c r="I18" t="n">
-        <v>75.35636030051944</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J18" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23855,10 +23855,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>102.1006281848752</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S18" t="n">
         <v>158.6458343615066</v>
@@ -23998,7 +23998,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24007,13 +24007,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>67.46474657889404</v>
@@ -24074,7 +24074,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24092,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>56.57895837355435</v>
@@ -24229,13 +24229,13 @@
         <v>159.9014836333536</v>
       </c>
       <c r="J23" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24244,16 +24244,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>133.1811664518765</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S23" t="n">
         <v>179.1266962566148</v>
@@ -24305,13 +24305,13 @@
         <v>105.4566448252536</v>
       </c>
       <c r="I24" t="n">
-        <v>75.35636030051944</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J24" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>102.1006281848752</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S24" t="n">
         <v>158.6458343615066</v>
@@ -24472,7 +24472,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24481,10 +24481,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -24548,7 +24548,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24639,10 +24639,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>55.28283671961447</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>66.55853351624533</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>36.88799085553058</v>
@@ -24703,13 +24703,13 @@
         <v>159.9014836333536</v>
       </c>
       <c r="J29" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24718,16 +24718,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>133.1811664518765</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S29" t="n">
         <v>179.1266962566148</v>
@@ -24779,13 +24779,13 @@
         <v>105.4566448252536</v>
       </c>
       <c r="I30" t="n">
-        <v>75.35636030051944</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J30" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24803,10 +24803,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>102.1006281848752</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S30" t="n">
         <v>158.6458343615066</v>
@@ -24864,25 +24864,25 @@
         <v>51.75628081312638</v>
       </c>
       <c r="K31" t="n">
-        <v>60.64691470913344</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>47.39929435887775</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>46.68471506615329</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>37.63776203285606</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>55.28283671961447</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>66.55853351624533</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.230949233282</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R31" t="n">
         <v>150.8348675305268</v>
@@ -24943,10 +24943,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24955,10 +24955,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -25022,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>56.57895837355435</v>
@@ -25183,7 +25183,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25192,13 +25192,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>67.46474657889404</v>
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25277,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>56.57895837355435</v>
@@ -25417,10 +25417,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25429,13 +25429,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>67.46474657889404</v>
@@ -25490,13 +25490,13 @@
         <v>105.4566448252536</v>
       </c>
       <c r="I39" t="n">
-        <v>75.35636030051944</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J39" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>56.57895837355435</v>
@@ -25584,7 +25584,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>37.63776203285606</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -25654,10 +25654,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25666,13 +25666,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>67.46474657889404</v>
@@ -25733,7 +25733,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>56.57895837355435</v>
@@ -25815,19 +25815,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>47.39929435887775</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>46.68471506615329</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>55.28283671961447</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>66.55853351624533</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>36.88799085553058</v>
@@ -25891,10 +25891,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25903,10 +25903,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -25970,7 +25970,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>942263.7625970411</v>
+        <v>942263.762597041</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>253972.704777872</v>
+        <v>302992.614775142</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>282560.1655218702</v>
+        <v>302992.614775142</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>258968.0863124059</v>
+        <v>302992.614775142</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>275001.552868543</v>
+        <v>302992.614775142</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>240103.7714675915</v>
+        <v>302992.614775142</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>284856.3589523738</v>
+        <v>302992.614775142</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>224162.544846805</v>
+        <v>302992.614775142</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>278821.5338757905</v>
+        <v>302992.614775142</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>275001.552868543</v>
+        <v>302992.614775142</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>260765.0082070261</v>
+        <v>302992.614775142</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>258519.1559423758</v>
+        <v>302992.614775142</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>282560.1655218702</v>
+        <v>302992.614775142</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>491565.803230223</v>
       </c>
       <c r="C2" t="n">
-        <v>491607.1718100512</v>
+        <v>491607.1718100513</v>
       </c>
       <c r="D2" t="n">
-        <v>491615.8761375863</v>
+        <v>491615.8761375864</v>
       </c>
       <c r="E2" t="n">
-        <v>126922.2869429972</v>
+        <v>143729.1132277753</v>
       </c>
       <c r="F2" t="n">
-        <v>136723.7020552251</v>
+        <v>143729.1132277753</v>
       </c>
       <c r="G2" t="n">
-        <v>128634.9891834088</v>
+        <v>143729.1132277753</v>
       </c>
       <c r="H2" t="n">
-        <v>134132.1777169415</v>
+        <v>143729.1132277753</v>
       </c>
       <c r="I2" t="n">
-        <v>122167.2240937582</v>
+        <v>143729.1132277753</v>
       </c>
       <c r="J2" t="n">
-        <v>137510.9683742549</v>
+        <v>143729.1132277753</v>
       </c>
       <c r="K2" t="n">
-        <v>116701.6606809171</v>
+        <v>143729.1132277753</v>
       </c>
       <c r="L2" t="n">
-        <v>135441.8854908549</v>
+        <v>143729.1132277753</v>
       </c>
       <c r="M2" t="n">
-        <v>134132.1777169415</v>
+        <v>143729.1132277753</v>
       </c>
       <c r="N2" t="n">
-        <v>129251.0766901357</v>
+        <v>143729.1132277753</v>
       </c>
       <c r="O2" t="n">
-        <v>128481.0701993985</v>
+        <v>143729.1132277754</v>
       </c>
       <c r="P2" t="n">
-        <v>136723.7020552251</v>
+        <v>143729.1132277753</v>
       </c>
     </row>
     <row r="3">
@@ -26426,40 +26426,40 @@
         <v>377068.1104903042</v>
       </c>
       <c r="E4" t="n">
-        <v>10704.98813712728</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="F4" t="n">
-        <v>20506.40324935521</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="G4" t="n">
-        <v>12417.69037753894</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="H4" t="n">
-        <v>17914.87891107158</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="I4" t="n">
-        <v>5949.925287888313</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="J4" t="n">
-        <v>21293.66956838501</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="K4" t="n">
-        <v>484.3618750472159</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="L4" t="n">
-        <v>19224.58668498503</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="M4" t="n">
-        <v>17914.87891107158</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="N4" t="n">
-        <v>13033.77788426581</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="O4" t="n">
-        <v>12263.77139352858</v>
+        <v>27511.81442190543</v>
       </c>
       <c r="P4" t="n">
-        <v>20506.40324935521</v>
+        <v>27511.81442190543</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9677.75670150821</v>
+        <v>-9721.892480189392</v>
       </c>
       <c r="C6" t="n">
-        <v>-135434.3549872537</v>
+        <v>-135476.7670751086</v>
       </c>
       <c r="D6" t="n">
-        <v>36409.24199035356</v>
+        <v>36367.19258281257</v>
       </c>
       <c r="E6" t="n">
-        <v>56463.12241727697</v>
+        <v>41925.79122182718</v>
       </c>
       <c r="F6" t="n">
-        <v>109103.5614400661</v>
+        <v>94566.23024461637</v>
       </c>
       <c r="G6" t="n">
-        <v>109103.5614400661</v>
+        <v>94566.23024461631</v>
       </c>
       <c r="H6" t="n">
-        <v>109103.5614400661</v>
+        <v>94566.23024461634</v>
       </c>
       <c r="I6" t="n">
-        <v>109103.5614400661</v>
+        <v>94566.23024461637</v>
       </c>
       <c r="J6" t="n">
-        <v>109103.5614400661</v>
+        <v>94566.23024461634</v>
       </c>
       <c r="K6" t="n">
-        <v>109103.5614400661</v>
+        <v>94566.23024461634</v>
       </c>
       <c r="L6" t="n">
-        <v>109103.5614400661</v>
+        <v>94566.23024461634</v>
       </c>
       <c r="M6" t="n">
-        <v>109103.5614400661</v>
+        <v>94566.23024461634</v>
       </c>
       <c r="N6" t="n">
-        <v>109103.5614400661</v>
+        <v>94566.23024461631</v>
       </c>
       <c r="O6" t="n">
-        <v>109103.5614400661</v>
+        <v>94566.2302446164</v>
       </c>
       <c r="P6" t="n">
-        <v>109103.5614400661</v>
+        <v>94566.23024461634</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_24_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>413674.0204085457</v>
+        <v>487455.4266239203</v>
       </c>
     </row>
     <row r="7">
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.069265482343781</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P14" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.64258426171736</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9090,10 +9090,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L16" t="n">
-        <v>47.39929435887774</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M16" t="n">
-        <v>46.68471506615327</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N16" t="n">
         <v>37.63776203285606</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P29" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10275,10 +10275,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L31" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M31" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N31" t="n">
         <v>37.63776203285606</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>67.46474657889402</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S14" t="n">
         <v>179.1266962566148</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.57895837355434</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S15" t="n">
         <v>158.6458343615066</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>67.46474657889404</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S29" t="n">
         <v>179.1266962566148</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>56.57895837355435</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S30" t="n">
         <v>158.6458343615066</v>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.803230223</v>
+        <v>491565.8032302229</v>
       </c>
       <c r="C2" t="n">
-        <v>491607.1718100513</v>
+        <v>491607.1718100514</v>
       </c>
       <c r="D2" t="n">
-        <v>491615.8761375864</v>
+        <v>491615.8761375863</v>
       </c>
       <c r="E2" t="n">
         <v>143729.1132277753</v>
@@ -26352,7 +26352,7 @@
         <v>143729.1132277753</v>
       </c>
       <c r="O2" t="n">
-        <v>143729.1132277754</v>
+        <v>143729.1132277753</v>
       </c>
       <c r="P2" t="n">
         <v>143729.1132277753</v>
@@ -26368,10 +26368,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>196199.5392125275</v>
+        <v>196199.5392125276</v>
       </c>
       <c r="D3" t="n">
-        <v>38825.56230004787</v>
+        <v>38825.56230004777</v>
       </c>
       <c r="E3" t="n">
         <v>52640.43902278915</v>
@@ -26420,7 +26420,7 @@
         <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>392517.3300834397</v>
+        <v>392517.3300834396</v>
       </c>
       <c r="D4" t="n">
         <v>377068.1104903042</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9721.892480189392</v>
+        <v>-9682.170279376438</v>
       </c>
       <c r="C6" t="n">
-        <v>-135476.7670751086</v>
+        <v>-135438.596196039</v>
       </c>
       <c r="D6" t="n">
-        <v>36367.19258281257</v>
+        <v>36405.03704959946</v>
       </c>
       <c r="E6" t="n">
-        <v>41925.79122182718</v>
+        <v>55009.38929773201</v>
       </c>
       <c r="F6" t="n">
-        <v>94566.23024461637</v>
+        <v>107649.8283205212</v>
       </c>
       <c r="G6" t="n">
-        <v>94566.23024461631</v>
+        <v>107649.8283205211</v>
       </c>
       <c r="H6" t="n">
-        <v>94566.23024461634</v>
+        <v>107649.8283205212</v>
       </c>
       <c r="I6" t="n">
-        <v>94566.23024461637</v>
+        <v>107649.8283205211</v>
       </c>
       <c r="J6" t="n">
-        <v>94566.23024461634</v>
+        <v>107649.8283205211</v>
       </c>
       <c r="K6" t="n">
-        <v>94566.23024461634</v>
+        <v>107649.8283205212</v>
       </c>
       <c r="L6" t="n">
-        <v>94566.23024461634</v>
+        <v>107649.8283205212</v>
       </c>
       <c r="M6" t="n">
-        <v>94566.23024461634</v>
+        <v>107649.8283205212</v>
       </c>
       <c r="N6" t="n">
-        <v>94566.23024461631</v>
+        <v>107649.8283205212</v>
       </c>
       <c r="O6" t="n">
-        <v>94566.2302446164</v>
+        <v>107649.8283205211</v>
       </c>
       <c r="P6" t="n">
-        <v>94566.23024461634</v>
+        <v>107649.8283205212</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>215.4613532723709</v>
+        <v>215.461353272371</v>
       </c>
       <c r="D3" t="n">
         <v>260.7963925174648</v>
@@ -26962,10 +26962,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>215.4613532723709</v>
+        <v>215.461353272371</v>
       </c>
       <c r="D3" t="n">
-        <v>45.33503924509392</v>
+        <v>45.33503924509381</v>
       </c>
       <c r="E3" t="n">
         <v>65.52183527169944</v>
@@ -27639,31 +27639,31 @@
         <v>177.082627974293</v>
       </c>
       <c r="J5" t="n">
-        <v>107.5302742460797</v>
+        <v>107.5302742460796</v>
       </c>
       <c r="K5" t="n">
-        <v>109.908978215552</v>
+        <v>109.9089782155519</v>
       </c>
       <c r="L5" t="n">
-        <v>99.07729936584784</v>
+        <v>99.07729936584778</v>
       </c>
       <c r="M5" t="n">
-        <v>78.25325494471113</v>
+        <v>78.25325494471107</v>
       </c>
       <c r="N5" t="n">
-        <v>74.85906191710419</v>
+        <v>74.8590619171041</v>
       </c>
       <c r="O5" t="n">
-        <v>84.15725027125384</v>
+        <v>84.15725027125376</v>
       </c>
       <c r="P5" t="n">
-        <v>106.6757618768433</v>
+        <v>106.6757618768432</v>
       </c>
       <c r="Q5" t="n">
         <v>128.7683945450354</v>
       </c>
       <c r="R5" t="n">
-        <v>161.1755911508334</v>
+        <v>161.1755911508333</v>
       </c>
       <c r="S5" t="n">
         <v>189.282077273907</v>
@@ -27715,31 +27715,31 @@
         <v>107.7595395204044</v>
       </c>
       <c r="I6" t="n">
-        <v>83.56604393218763</v>
+        <v>83.56604393218761</v>
       </c>
       <c r="J6" t="n">
-        <v>83.05222090402384</v>
+        <v>83.05222090402381</v>
       </c>
       <c r="K6" t="n">
-        <v>63.00520648918088</v>
+        <v>63.00520648918084</v>
       </c>
       <c r="L6" t="n">
-        <v>37.9278298388485</v>
+        <v>37.92782983884844</v>
       </c>
       <c r="M6" t="n">
-        <v>24.70759638857619</v>
+        <v>24.70759638857614</v>
       </c>
       <c r="N6" t="n">
-        <v>10.80734616165101</v>
+        <v>10.80734616165095</v>
       </c>
       <c r="O6" t="n">
-        <v>32.3308479258944</v>
+        <v>32.33084792589435</v>
       </c>
       <c r="P6" t="n">
-        <v>45.47670553911811</v>
+        <v>45.47670553911807</v>
       </c>
       <c r="Q6" t="n">
-        <v>80.82340403282262</v>
+        <v>80.82340403282259</v>
       </c>
       <c r="R6" t="n">
         <v>116.9052500307216</v>
@@ -27800,22 +27800,22 @@
         <v>99.52586497383498</v>
       </c>
       <c r="K7" t="n">
-        <v>83.87233858330752</v>
+        <v>83.87233858330751</v>
       </c>
       <c r="L7" t="n">
-        <v>77.11984068424889</v>
+        <v>77.11984068424884</v>
       </c>
       <c r="M7" t="n">
-        <v>78.02086403817079</v>
+        <v>78.02086403817074</v>
       </c>
       <c r="N7" t="n">
-        <v>68.22880742205579</v>
+        <v>68.22880742205575</v>
       </c>
       <c r="O7" t="n">
-        <v>83.53861844071453</v>
+        <v>83.5386184407145</v>
       </c>
       <c r="P7" t="n">
-        <v>90.73623611577678</v>
+        <v>90.73623611577676</v>
       </c>
       <c r="Q7" t="n">
         <v>118.9703372853178</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8661762945622944</v>
+        <v>0.8661762945622948</v>
       </c>
       <c r="H5" t="n">
-        <v>8.8707279766861</v>
+        <v>8.870727976686105</v>
       </c>
       <c r="I5" t="n">
-        <v>33.39326159611289</v>
+        <v>33.39326159611291</v>
       </c>
       <c r="J5" t="n">
-        <v>73.5156302806066</v>
+        <v>73.51563028060664</v>
       </c>
       <c r="K5" t="n">
         <v>110.1808728294286</v>
       </c>
       <c r="L5" t="n">
-        <v>136.6891156041394</v>
+        <v>136.6891156041395</v>
       </c>
       <c r="M5" t="n">
-        <v>152.0929782825616</v>
+        <v>152.0929782825617</v>
       </c>
       <c r="N5" t="n">
-        <v>154.5540016794867</v>
+        <v>154.5540016794868</v>
       </c>
       <c r="O5" t="n">
-        <v>145.9409611504329</v>
+        <v>145.940961150433</v>
       </c>
       <c r="P5" t="n">
-        <v>124.5572338784262</v>
+        <v>124.5572338784263</v>
       </c>
       <c r="Q5" t="n">
-        <v>93.53729532941404</v>
+        <v>93.53729532941409</v>
       </c>
       <c r="R5" t="n">
-        <v>54.40994666329878</v>
+        <v>54.4099466632988</v>
       </c>
       <c r="S5" t="n">
-        <v>19.7379923123383</v>
+        <v>19.73799231233831</v>
       </c>
       <c r="T5" t="n">
-        <v>3.791686729446446</v>
+        <v>3.791686729446448</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06929410356498354</v>
+        <v>0.06929410356498357</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4634451749632129</v>
+        <v>0.4634451749632131</v>
       </c>
       <c r="H6" t="n">
-        <v>4.475904716092083</v>
+        <v>4.475904716092085</v>
       </c>
       <c r="I6" t="n">
         <v>15.95633606781238</v>
       </c>
       <c r="J6" t="n">
-        <v>43.78540576264285</v>
+        <v>43.78540576264287</v>
       </c>
       <c r="K6" t="n">
-        <v>74.83623248517812</v>
+        <v>74.83623248517816</v>
       </c>
       <c r="L6" t="n">
         <v>100.6265499410257</v>
       </c>
       <c r="M6" t="n">
-        <v>117.4264375334421</v>
+        <v>117.4264375334422</v>
       </c>
       <c r="N6" t="n">
-        <v>120.5343659216823</v>
+        <v>120.5343659216824</v>
       </c>
       <c r="O6" t="n">
-        <v>110.26539651855</v>
+        <v>110.2653965185501</v>
       </c>
       <c r="P6" t="n">
-        <v>88.49770187521213</v>
+        <v>88.49770187521217</v>
       </c>
       <c r="Q6" t="n">
-        <v>59.1583700531989</v>
+        <v>59.15837005319893</v>
       </c>
       <c r="R6" t="n">
-        <v>28.7742539332423</v>
+        <v>28.77425393324231</v>
       </c>
       <c r="S6" t="n">
-        <v>8.608290859514058</v>
+        <v>8.608290859514064</v>
       </c>
       <c r="T6" t="n">
-        <v>1.868009279785932</v>
+        <v>1.868009279785933</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03048981414231665</v>
+        <v>0.03048981414231667</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3885368665567344</v>
+        <v>0.3885368665567346</v>
       </c>
       <c r="H7" t="n">
-        <v>3.454445959022605</v>
+        <v>3.454445959022606</v>
       </c>
       <c r="I7" t="n">
         <v>11.68436322336071</v>
       </c>
       <c r="J7" t="n">
-        <v>27.46955646556112</v>
+        <v>27.46955646556113</v>
       </c>
       <c r="K7" t="n">
-        <v>45.14091958722786</v>
+        <v>45.14091958722788</v>
       </c>
       <c r="L7" t="n">
-        <v>57.76483559698941</v>
+        <v>57.76483559698944</v>
       </c>
       <c r="M7" t="n">
-        <v>60.90491990943427</v>
+        <v>60.90491990943431</v>
       </c>
       <c r="N7" t="n">
-        <v>59.4567370431774</v>
+        <v>59.45673704317743</v>
       </c>
       <c r="O7" t="n">
-        <v>54.91792001112826</v>
+        <v>54.91792001112829</v>
       </c>
       <c r="P7" t="n">
-        <v>46.99176793337084</v>
+        <v>46.99176793337086</v>
       </c>
       <c r="Q7" t="n">
-        <v>32.534664344128</v>
+        <v>32.53466434412802</v>
       </c>
       <c r="R7" t="n">
-        <v>17.47003038172371</v>
+        <v>17.47003038172372</v>
       </c>
       <c r="S7" t="n">
-        <v>6.771137938084178</v>
+        <v>6.771137938084181</v>
       </c>
       <c r="T7" t="n">
         <v>1.660112066196956</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02119291999400372</v>
+        <v>0.02119291999400373</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I14" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J14" t="n">
         <v>111.3401072796808</v>
@@ -32022,7 +32022,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R14" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S14" t="n">
         <v>29.89337332963048</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H15" t="n">
         <v>6.778799411242828</v>
@@ -32101,7 +32101,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R15" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S15" t="n">
         <v>13.03733674233122</v>
@@ -32150,7 +32150,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H16" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I16" t="n">
         <v>17.69607700863206</v>
@@ -32162,10 +32162,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L16" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M16" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N16" t="n">
         <v>90.04778243237713</v>
@@ -33180,7 +33180,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I29" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J29" t="n">
         <v>111.3401072796808</v>
@@ -33207,7 +33207,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R29" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S29" t="n">
         <v>29.89337332963048</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H30" t="n">
         <v>6.778799411242828</v>
@@ -33286,7 +33286,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R30" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S30" t="n">
         <v>13.03733674233122</v>
@@ -33335,7 +33335,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H31" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I31" t="n">
         <v>17.69607700863206</v>
@@ -33347,10 +33347,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L31" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M31" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N31" t="n">
         <v>90.04778243237713</v>
